--- a/5. Recommendation Engines/Collaborative Filtering Example.xlsx
+++ b/5. Recommendation Engines/Collaborative Filtering Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paragpradhan/Documents/Data Science Course/DSB8/5. Recommendation Engines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C6E0B1-2925-0941-8E61-686E93C35073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED302F2-10EE-484B-BFDD-BD4264D669E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30940" windowHeight="18360" xr2:uid="{A9BAFCC2-2992-7741-869C-F9E51D66CCB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A9BAFCC2-2992-7741-869C-F9E51D66CCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Collaborative Filtering" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>A</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>[S(a,b)*Score(b) + S(a,e)*Score(e)] / [ S(a,b) + S(a,e) ]</t>
+  </si>
+  <si>
+    <t>rating</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1836BF-4CB6-3C4E-826A-B9CACF475D5F}">
-  <dimension ref="B1:J39"/>
+  <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,7 +556,7 @@
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>28</v>
       </c>
@@ -562,14 +565,14 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -579,8 +582,17 @@
       <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -606,7 +618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -621,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -632,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -646,7 +658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -657,10 +669,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
         <v>3</v>
       </c>
@@ -668,13 +683,13 @@
         <v>4</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -697,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -717,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -744,7 +759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -771,7 +786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -798,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -999,6 +1014,9 @@
         <f>C20-$H20</f>
         <v>2</v>
       </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27">
         <f t="shared" ref="E27:F27" si="1">E20-$H20</f>
         <v>3</v>
@@ -1020,6 +1038,15 @@
         <f t="shared" ref="D28" si="2">D21-$H21</f>
         <v>3</v>
       </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,6 +1059,12 @@
       <c r="B29" t="s">
         <v>2</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
       <c r="E29">
         <f t="shared" ref="E29:G29" si="3">E22-$H22</f>
         <v>-0.20000000000000018</v>
@@ -1056,10 +1089,19 @@
       <c r="B30" t="s">
         <v>3</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="D30">
         <f t="shared" ref="D30:G31" si="4">D23-$H23</f>
         <v>1.8</v>
       </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
       <c r="G30">
         <f t="shared" si="4"/>
         <v>1.8</v>
@@ -1076,6 +1118,9 @@
       <c r="B31" t="s">
         <v>20</v>
       </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
       <c r="D31">
         <f t="shared" si="4"/>
         <v>-0.75</v>
@@ -1138,8 +1183,8 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="3">
-        <f>(J28*D21+J31*D24)/(J28+J31)</f>
-        <v>7.8</v>
+        <f>(J28*D21+J30*D23)/(J28+J30)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
